--- a/data/trans_orig/P32A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6649</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2924</v>
+        <v>2917</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13091</v>
+        <v>13274</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02211039703594114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009724296676179717</v>
+        <v>0.00969987242839768</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04353126295135444</v>
+        <v>0.04413945829647768</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5010</v>
+        <v>3777</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005060122766347324</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02744331395170421</v>
+        <v>0.02069342721063251</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>7573</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3657</v>
+        <v>3161</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14777</v>
+        <v>14019</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01566999981559715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007566886296344912</v>
+        <v>0.006541314340012097</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03057718521314524</v>
+        <v>0.02900858084130464</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>294071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287629</v>
+        <v>287446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>297796</v>
+        <v>297803</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9778896029640588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9564687370486459</v>
+        <v>0.9558605417035224</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9902757033238203</v>
+        <v>0.9903001275716025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>174</v>
@@ -836,7 +836,7 @@
         <v>181619</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177533</v>
+        <v>178766</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>182543</v>
@@ -845,7 +845,7 @@
         <v>0.9949398772336526</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9725566860482959</v>
+        <v>0.9793065727893675</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>475690</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>468486</v>
+        <v>469244</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>479606</v>
+        <v>480102</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9843300001844029</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9694228147868548</v>
+        <v>0.9709914191586954</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9924331137036551</v>
+        <v>0.9934586856599897</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>8957</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4068</v>
+        <v>3987</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17073</v>
+        <v>16184</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01415822101631988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006429797649001538</v>
+        <v>0.006302214433153447</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02698586405165158</v>
+        <v>0.02558072313637105</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>8957</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3995</v>
+        <v>4797</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15959</v>
+        <v>17412</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01017445891686145</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004537958738996839</v>
+        <v>0.005449199918521655</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01812750430615928</v>
+        <v>0.01977831532347683</v>
       </c>
     </row>
     <row r="8">
@@ -1024,19 +1024,19 @@
         <v>623707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>615591</v>
+        <v>616480</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>628596</v>
+        <v>628677</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9858417789836801</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9730141359483484</v>
+        <v>0.9744192768636279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9935702023509982</v>
+        <v>0.9936977855668465</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>240</v>
@@ -1058,19 +1058,19 @@
         <v>871423</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>864421</v>
+        <v>862968</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>876385</v>
+        <v>875583</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9898255410831386</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9818724956938407</v>
+        <v>0.9802216846765225</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9954620412610031</v>
+        <v>0.9945508000814782</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>3705</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10984</v>
+        <v>11007</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005645518631709628</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001468742987008135</v>
+        <v>0.00146423204840572</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01673777225500426</v>
+        <v>0.01677342538382211</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4473</v>
+        <v>6535</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003212823359260669</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01412262521754097</v>
+        <v>0.02063074328381585</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1204,19 +1204,19 @@
         <v>4722</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1525</v>
+        <v>1022</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11718</v>
+        <v>12806</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004853568212698196</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001567208642177529</v>
+        <v>0.001050261984577878</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01204374641793469</v>
+        <v>0.01316125333582147</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>652530</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>645251</v>
+        <v>645228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>655271</v>
+        <v>655274</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9943544813682904</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9832622277449963</v>
+        <v>0.9832265746161782</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9985312570129918</v>
+        <v>0.9985357679515943</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -1254,7 +1254,7 @@
         <v>315732</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>312277</v>
+        <v>310215</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>316750</v>
@@ -1263,7 +1263,7 @@
         <v>0.9967871766407393</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9858773747824584</v>
+        <v>0.9793692567161877</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1275,19 +1275,19 @@
         <v>968263</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>961267</v>
+        <v>960179</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>971460</v>
+        <v>971963</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9951464317873018</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9879562535820656</v>
+        <v>0.9868387466641785</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9984327913578273</v>
+        <v>0.9989497380154222</v>
       </c>
     </row>
     <row r="12">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5111</v>
+        <v>5137</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007720889553479233</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03877447627238287</v>
+        <v>0.03897561914620448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5127</v>
+        <v>5064</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002492423449818675</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01255764259094712</v>
+        <v>0.01240309255874579</v>
       </c>
     </row>
     <row r="14">
@@ -1455,7 +1455,7 @@
         <v>130788</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>126695</v>
+        <v>126669</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>131806</v>
@@ -1464,7 +1464,7 @@
         <v>0.9922791104465207</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9612255237276172</v>
+        <v>0.9610243808537955</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>407284</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>403175</v>
+        <v>403238</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>408302</v>
@@ -1485,7 +1485,7 @@
         <v>0.9975075765501813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9874423574090528</v>
+        <v>0.9875969074412543</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1580,19 +1580,19 @@
         <v>19311</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12156</v>
+        <v>11441</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29648</v>
+        <v>29116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01034835656646181</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006513953956528379</v>
+        <v>0.006130851354972408</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0158878097589113</v>
+        <v>0.01560274085434329</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1601,19 +1601,19 @@
         <v>2959</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8464</v>
+        <v>8677</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003367045459206865</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001047425850539245</v>
+        <v>0.001045635230164051</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009631511584538531</v>
+        <v>0.009873776437735012</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1622,19 +1622,19 @@
         <v>22270</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14433</v>
+        <v>14587</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33073</v>
+        <v>32997</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008113223554591634</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005258036733776124</v>
+        <v>0.005314317052563975</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01204882028251869</v>
+        <v>0.01202096000664895</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>1846803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1836466</v>
+        <v>1836998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1853958</v>
+        <v>1854673</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9896516434335382</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9841121902410886</v>
+        <v>0.9843972591456567</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9934860460434716</v>
+        <v>0.9938691486450276</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>856</v>
@@ -1672,19 +1672,19 @@
         <v>875856</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>870351</v>
+        <v>870138</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>877895</v>
+        <v>877896</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9966329545407931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9903684884154614</v>
+        <v>0.9901262235622665</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9989525741494608</v>
+        <v>0.9989543647698359</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2667</v>
@@ -1693,19 +1693,19 @@
         <v>2722659</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2711856</v>
+        <v>2711932</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2730496</v>
+        <v>2730342</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9918867764454083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9879511797174811</v>
+        <v>0.9879790399933515</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9947419632662238</v>
+        <v>0.9946856829474361</v>
       </c>
     </row>
     <row r="18">
@@ -2037,19 +2037,19 @@
         <v>22219</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14203</v>
+        <v>14055</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33905</v>
+        <v>32951</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03703643817271835</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02367402791734294</v>
+        <v>0.02342720510517953</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05651494458397097</v>
+        <v>0.05492535480556073</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6065</v>
+        <v>6825</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006988443477404602</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02154466040723593</v>
+        <v>0.02424342529719853</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -2079,19 +2079,19 @@
         <v>24186</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15463</v>
+        <v>15717</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36047</v>
+        <v>35862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02744000101063021</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01754311803068366</v>
+        <v>0.01783114831177611</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04089653402108285</v>
+        <v>0.04068577885677085</v>
       </c>
     </row>
     <row r="5">
@@ -2108,19 +2108,19 @@
         <v>577709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>566023</v>
+        <v>566977</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>585725</v>
+        <v>585873</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9629635618272816</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.943485055416029</v>
+        <v>0.9450746451944391</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9763259720826565</v>
+        <v>0.9765727948948203</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>255</v>
@@ -2129,7 +2129,7 @@
         <v>279536</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>275438</v>
+        <v>274678</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>281503</v>
@@ -2138,7 +2138,7 @@
         <v>0.9930115565225954</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9784553395927641</v>
+        <v>0.9757565747028009</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2150,19 +2150,19 @@
         <v>857245</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>845384</v>
+        <v>845569</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>865968</v>
+        <v>865714</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9725599989893698</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9591034659789172</v>
+        <v>0.9593142211432291</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9824568819693164</v>
+        <v>0.9821688516882234</v>
       </c>
     </row>
     <row r="6">
@@ -2254,19 +2254,19 @@
         <v>11329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5792</v>
+        <v>5441</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22439</v>
+        <v>21167</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01929640779888639</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00986469345638725</v>
+        <v>0.009267483928151301</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03822074226986781</v>
+        <v>0.03605418545165178</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2288,19 +2288,19 @@
         <v>11329</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5740</v>
+        <v>5395</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21237</v>
+        <v>21677</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01255803351190159</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006362290556037761</v>
+        <v>0.005980915221254722</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02354147542091329</v>
+        <v>0.02402914614097462</v>
       </c>
     </row>
     <row r="8">
@@ -2317,19 +2317,19 @@
         <v>575766</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>564656</v>
+        <v>565928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>581303</v>
+        <v>581654</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9807035922011136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9617792577301316</v>
+        <v>0.9639458145483479</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9901353065436126</v>
+        <v>0.9907325160718485</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>291</v>
@@ -2351,19 +2351,19 @@
         <v>890789</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>880881</v>
+        <v>880441</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>896378</v>
+        <v>896723</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9874419664880985</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9764585245790868</v>
+        <v>0.9759708538590254</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9936377094439623</v>
+        <v>0.9940190847787452</v>
       </c>
     </row>
     <row r="9">
@@ -2455,19 +2455,19 @@
         <v>13089</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6947</v>
+        <v>7104</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22330</v>
+        <v>22743</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0239652585716874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01272016899326306</v>
+        <v>0.01300698986435843</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04088511232067996</v>
+        <v>0.04164236804968709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -2476,19 +2476,19 @@
         <v>6133</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2186</v>
+        <v>2204</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14465</v>
+        <v>14979</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02214113126228731</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007892695686026649</v>
+        <v>0.007955584858658096</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05221907335088445</v>
+        <v>0.05407425258955448</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2497,19 +2497,19 @@
         <v>19222</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11730</v>
+        <v>11421</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31427</v>
+        <v>31822</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02335141889689881</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01424971257426825</v>
+        <v>0.0138743187150037</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03817793523213391</v>
+        <v>0.03865835932523153</v>
       </c>
     </row>
     <row r="11">
@@ -2526,19 +2526,19 @@
         <v>533068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>523827</v>
+        <v>523414</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>539210</v>
+        <v>539053</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9760347414283126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9591148876793198</v>
+        <v>0.9583576319503129</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9872798310067369</v>
+        <v>0.9869930101356414</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>256</v>
@@ -2547,19 +2547,19 @@
         <v>270870</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>262538</v>
+        <v>262024</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>274817</v>
+        <v>274799</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9778588687377127</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9477809266491158</v>
+        <v>0.9459257474104455</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9921073043139734</v>
+        <v>0.9920444151413419</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>758</v>
@@ -2568,19 +2568,19 @@
         <v>803938</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>791733</v>
+        <v>791338</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>811430</v>
+        <v>811739</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9766485811031012</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9618220647678658</v>
+        <v>0.9613416406747691</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9857502874257318</v>
+        <v>0.9861256812849964</v>
       </c>
     </row>
     <row r="12">
@@ -2672,19 +2672,19 @@
         <v>5024</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1838</v>
+        <v>1916</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11716</v>
+        <v>11747</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0170315470593311</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006229447656413526</v>
+        <v>0.006496261356539663</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03971709072588228</v>
+        <v>0.03982222277797443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3720</v>
+        <v>4603</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005329111569242454</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02220957301592512</v>
+        <v>0.02747973087482993</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -2714,19 +2714,19 @@
         <v>5916</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2546</v>
+        <v>2015</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12901</v>
+        <v>12668</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01279327114737245</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005505884724799864</v>
+        <v>0.004357686432687525</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02789675533194356</v>
+        <v>0.02739310493201987</v>
       </c>
     </row>
     <row r="14">
@@ -2743,19 +2743,19 @@
         <v>289953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>283261</v>
+        <v>283230</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>293139</v>
+        <v>293061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9829684529406689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9602829092741177</v>
+        <v>0.9601777772220257</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9937705523435865</v>
+        <v>0.9935037386434603</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>146</v>
@@ -2764,7 +2764,7 @@
         <v>166600</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>163773</v>
+        <v>162890</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>167493</v>
@@ -2773,7 +2773,7 @@
         <v>0.9946708884307576</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9777904269840749</v>
+        <v>0.9725202691251701</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2785,19 +2785,19 @@
         <v>456553</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>449568</v>
+        <v>449801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>459923</v>
+        <v>460454</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9872067288526275</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.972103244668057</v>
+        <v>0.97260689506798</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9944941152752003</v>
+        <v>0.9956423135673121</v>
       </c>
     </row>
     <row r="15">
@@ -2889,19 +2889,19 @@
         <v>51661</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38713</v>
+        <v>38630</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67456</v>
+        <v>69590</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02547176176472431</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01908759276105767</v>
+        <v>0.01904676021225314</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03325975256484869</v>
+        <v>0.03431209395081573</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -2910,19 +2910,19 @@
         <v>8993</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4153</v>
+        <v>4217</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18143</v>
+        <v>17818</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008638641088942868</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003989430035953255</v>
+        <v>0.004050775669103568</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01742831928853828</v>
+        <v>0.01711580406747117</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -2931,19 +2931,19 @@
         <v>60654</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47279</v>
+        <v>46208</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80985</v>
+        <v>78231</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01976220930927929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01540431132422193</v>
+        <v>0.01505565497592577</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02638667591107878</v>
+        <v>0.02548938457382578</v>
       </c>
     </row>
     <row r="17">
@@ -2960,19 +2960,19 @@
         <v>1976496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1960701</v>
+        <v>1958567</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1989444</v>
+        <v>1989527</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9745282382352757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9667402474351513</v>
+        <v>0.9656879060491844</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9809124072389422</v>
+        <v>0.9809532397877468</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>948</v>
@@ -2981,19 +2981,19 @@
         <v>1032028</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1022878</v>
+        <v>1023203</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1036868</v>
+        <v>1036804</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9913613589110571</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9825716807114616</v>
+        <v>0.9828841959325288</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9960105699640468</v>
+        <v>0.9959492243308966</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2808</v>
@@ -3002,19 +3002,19 @@
         <v>3008524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2988193</v>
+        <v>2990947</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3021899</v>
+        <v>3022970</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9802377906907207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9736133240889209</v>
+        <v>0.9745106154261742</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.984595688675778</v>
+        <v>0.9849443450240742</v>
       </c>
     </row>
     <row r="18">
@@ -3346,19 +3346,19 @@
         <v>17738</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9851</v>
+        <v>9709</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28081</v>
+        <v>27948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0299231818611784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01661862896083604</v>
+        <v>0.01637890517711439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04737088517658897</v>
+        <v>0.04714751986060847</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3367,19 +3367,19 @@
         <v>3186</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8720</v>
+        <v>8152</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009600505446017342</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00288569074837714</v>
+        <v>0.002883796939954535</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02627812209529126</v>
+        <v>0.02456846190615546</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -3388,19 +3388,19 @@
         <v>20924</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12834</v>
+        <v>13278</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31928</v>
+        <v>31456</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02262981096598561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01388020264700741</v>
+        <v>0.01436091284891713</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03453092870347139</v>
+        <v>0.03402047098023626</v>
       </c>
     </row>
     <row r="5">
@@ -3417,19 +3417,19 @@
         <v>575050</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>564707</v>
+        <v>564840</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>582937</v>
+        <v>583079</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9700768181388216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9526291148234111</v>
+        <v>0.9528524801393917</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9833813710391641</v>
+        <v>0.9836210948228856</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>317</v>
@@ -3438,19 +3438,19 @@
         <v>328637</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>323103</v>
+        <v>323671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>330865</v>
+        <v>330866</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9903994945539827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9737218779047089</v>
+        <v>0.975431538093845</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9971143092516229</v>
+        <v>0.9971162030600454</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>857</v>
@@ -3459,19 +3459,19 @@
         <v>903687</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>892683</v>
+        <v>893155</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>911777</v>
+        <v>911333</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9773701890340144</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9654690712965286</v>
+        <v>0.9659795290197639</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9861197973529926</v>
+        <v>0.9856390871510828</v>
       </c>
     </row>
     <row r="6">
@@ -3563,19 +3563,19 @@
         <v>6339</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2258</v>
+        <v>2942</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12685</v>
+        <v>13396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01165567651852805</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004151460880736237</v>
+        <v>0.005410632345757439</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02332430067130935</v>
+        <v>0.02463211713038998</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -3584,19 +3584,19 @@
         <v>4108</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9419</v>
+        <v>10079</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01259610901392825</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003260115400788508</v>
+        <v>0.003269480595807762</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02888210762429167</v>
+        <v>0.03090397991804643</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -3605,19 +3605,19 @@
         <v>10447</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5249</v>
+        <v>5213</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19711</v>
+        <v>18290</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.012008223682013</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006033055175608665</v>
+        <v>0.005992473948650827</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02265681333084435</v>
+        <v>0.0210234211116793</v>
       </c>
     </row>
     <row r="8">
@@ -3634,19 +3634,19 @@
         <v>537494</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>531148</v>
+        <v>530437</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>541575</v>
+        <v>540891</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9883443234814719</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9766756993286906</v>
+        <v>0.97536788286961</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958485391192637</v>
+        <v>0.9945893676542424</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>313</v>
@@ -3655,19 +3655,19 @@
         <v>322021</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>316710</v>
+        <v>316050</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>325066</v>
+        <v>325063</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9874038909860717</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9711178923757081</v>
+        <v>0.9690960200819535</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9967398845992114</v>
+        <v>0.9967305194041922</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>833</v>
@@ -3676,19 +3676,19 @@
         <v>859515</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>850251</v>
+        <v>851672</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>864713</v>
+        <v>864749</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.987991776317987</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9773431866691557</v>
+        <v>0.9789765788883208</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9939669448243913</v>
+        <v>0.9940075260513492</v>
       </c>
     </row>
     <row r="9">
@@ -3780,19 +3780,19 @@
         <v>6251</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2253</v>
+        <v>2754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12578</v>
+        <v>14046</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01180036053132284</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004253233132332551</v>
+        <v>0.005199813886008713</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02374537939580891</v>
+        <v>0.02651648255174555</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3801,19 +3801,19 @@
         <v>6262</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14416</v>
+        <v>14273</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02147551946276016</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007383653474348856</v>
+        <v>0.007385661596067796</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04944061920731487</v>
+        <v>0.04895084308293779</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -3822,19 +3822,19 @@
         <v>12513</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6335</v>
+        <v>6830</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22546</v>
+        <v>21323</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.015235392639711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007713671196137731</v>
+        <v>0.008316114488006562</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02745257123426829</v>
+        <v>0.02596305898617936</v>
       </c>
     </row>
     <row r="11">
@@ -3851,19 +3851,19 @@
         <v>523448</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>517121</v>
+        <v>515653</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>527446</v>
+        <v>526945</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9881996394686772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.976254620604191</v>
+        <v>0.9734835174482538</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9957467668676674</v>
+        <v>0.9948001861139912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>271</v>
@@ -3872,19 +3872,19 @@
         <v>285324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>277170</v>
+        <v>277313</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>289433</v>
+        <v>289432</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9785244805372398</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9505593807926839</v>
+        <v>0.9510491569170606</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9926163465256511</v>
+        <v>0.9926143384039322</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>763</v>
@@ -3893,19 +3893,19 @@
         <v>808772</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>798739</v>
+        <v>799962</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>814950</v>
+        <v>814455</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.984764607360289</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9725474287657317</v>
+        <v>0.9740369410138208</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9922863288038624</v>
+        <v>0.9916838855119935</v>
       </c>
     </row>
     <row r="12">
@@ -3997,19 +3997,19 @@
         <v>7532</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3239</v>
+        <v>3260</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14264</v>
+        <v>15174</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02354311214439989</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01012483758154578</v>
+        <v>0.01018930839043456</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04458692516723929</v>
+        <v>0.0474313000252675</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5938</v>
+        <v>6931</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01025932768360215</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03159806644489177</v>
+        <v>0.03687914904341801</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -4039,19 +4039,19 @@
         <v>9460</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4396</v>
+        <v>4203</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18026</v>
+        <v>16692</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01862744350508752</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008655280026541524</v>
+        <v>0.008275554145976409</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03549445026002346</v>
+        <v>0.03286724029239409</v>
       </c>
     </row>
     <row r="14">
@@ -4068,19 +4068,19 @@
         <v>312387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>305655</v>
+        <v>304745</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>316680</v>
+        <v>316659</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9764568878556001</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9554130748327607</v>
+        <v>0.9525686999747326</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9898751624184543</v>
+        <v>0.9898106916095655</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>173</v>
@@ -4089,7 +4089,7 @@
         <v>186002</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>181992</v>
+        <v>180999</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>187930</v>
@@ -4098,7 +4098,7 @@
         <v>0.9897406723163978</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9684019335551084</v>
+        <v>0.9631208509565818</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4110,19 +4110,19 @@
         <v>498389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>489823</v>
+        <v>491157</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>503453</v>
+        <v>503646</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9813725564949125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9645055497399766</v>
+        <v>0.9671327597076059</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9913447199734585</v>
+        <v>0.9917244458540235</v>
       </c>
     </row>
     <row r="15">
@@ -4214,19 +4214,19 @@
         <v>37859</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25649</v>
+        <v>27588</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51512</v>
+        <v>53509</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01906083809092916</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01291340716320669</v>
+        <v>0.01388978368896127</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02593431354635722</v>
+        <v>0.02694003384571531</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -4235,19 +4235,19 @@
         <v>15484</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8659</v>
+        <v>8341</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25763</v>
+        <v>25836</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01361235748951624</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007612361986156107</v>
+        <v>0.007333170297431944</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0226490967284679</v>
+        <v>0.02271330228111964</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -4256,19 +4256,19 @@
         <v>53343</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39284</v>
+        <v>39082</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70355</v>
+        <v>69461</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01707682613413063</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01257612129651212</v>
+        <v>0.01251131356857467</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02252291618990541</v>
+        <v>0.02223660182819396</v>
       </c>
     </row>
     <row r="17">
@@ -4285,19 +4285,19 @@
         <v>1948380</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1934727</v>
+        <v>1932730</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1960590</v>
+        <v>1958651</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9809391619090708</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9740656864536427</v>
+        <v>0.9730599661542845</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9870865928367933</v>
+        <v>0.9861102163110387</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1074</v>
@@ -4306,19 +4306,19 @@
         <v>1121984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1111705</v>
+        <v>1111632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1128809</v>
+        <v>1129127</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9863876425104837</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9773509032715321</v>
+        <v>0.9772866977188801</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9923876380138439</v>
+        <v>0.992666829702568</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2919</v>
@@ -4327,19 +4327,19 @@
         <v>3070364</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3053352</v>
+        <v>3054246</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3084423</v>
+        <v>3084625</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9829231738658694</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9774770838100946</v>
+        <v>0.977763398171806</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9874238787034878</v>
+        <v>0.9874886864314254</v>
       </c>
     </row>
     <row r="18">
@@ -4671,19 +4671,19 @@
         <v>7671</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3897</v>
+        <v>3850</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13959</v>
+        <v>13871</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03584917956478339</v>
+        <v>0.03584917956478338</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01821373063515586</v>
+        <v>0.01799119668955925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06523787340500863</v>
+        <v>0.06482470035294126</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4692,19 +4692,19 @@
         <v>1579</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4490</v>
+        <v>5111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01358409702935269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0036470032334799</v>
+        <v>0.003716240319541795</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03863177673012693</v>
+        <v>0.04398209016071393</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4713,19 +4713,19 @@
         <v>9249</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5309</v>
+        <v>5384</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15876</v>
+        <v>15915</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02801256747829243</v>
+        <v>0.02801256747829241</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0160784665107758</v>
+        <v>0.0163068673007894</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04808290003853396</v>
+        <v>0.04819955268536276</v>
       </c>
     </row>
     <row r="5">
@@ -4742,19 +4742,19 @@
         <v>206299</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>200011</v>
+        <v>200099</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>210073</v>
+        <v>210120</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9641508204352166</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9347621265949914</v>
+        <v>0.9351752996470587</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9817862693648441</v>
+        <v>0.9820088033104407</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>148</v>
@@ -4763,19 +4763,19 @@
         <v>114636</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111725</v>
+        <v>111104</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>115791</v>
+        <v>115783</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9864159029706473</v>
+        <v>0.9864159029706472</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9613682232698727</v>
+        <v>0.9560179098392863</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.99635299676652</v>
+        <v>0.9962837596804582</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>338</v>
@@ -4784,19 +4784,19 @@
         <v>320936</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>314309</v>
+        <v>314270</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>324876</v>
+        <v>324801</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9719874325217077</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9519170999614661</v>
+        <v>0.9518004473146371</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9839215334892243</v>
+        <v>0.9836931326992107</v>
       </c>
     </row>
     <row r="6">
@@ -4888,19 +4888,19 @@
         <v>7184</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3050</v>
+        <v>3214</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13936</v>
+        <v>13759</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01581883032338888</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00671676089844723</v>
+        <v>0.007077164133069703</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03068761457852899</v>
+        <v>0.03029894289781389</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4909,19 +4909,19 @@
         <v>3841</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1185</v>
+        <v>1251</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10289</v>
+        <v>10588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0160323047241209</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00494487630667535</v>
+        <v>0.00522038534850672</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04294787312789134</v>
+        <v>0.04419751792314569</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -4930,19 +4930,19 @@
         <v>11024</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6283</v>
+        <v>6190</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20108</v>
+        <v>19955</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01589255547828766</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009057368560050095</v>
+        <v>0.0089237944725489</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02898698404100074</v>
+        <v>0.02876647908947714</v>
       </c>
     </row>
     <row r="8">
@@ -4959,19 +4959,19 @@
         <v>446932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>440180</v>
+        <v>440357</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>451066</v>
+        <v>450902</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9841811696766112</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9693123854214709</v>
+        <v>0.9697010571021861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9932832391015528</v>
+        <v>0.9929228358669303</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>306</v>
@@ -4980,19 +4980,19 @@
         <v>235729</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>229281</v>
+        <v>228982</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>238385</v>
+        <v>238319</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9839676952758791</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9570521268721087</v>
+        <v>0.9558024820768544</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9950551236933246</v>
+        <v>0.9947796146514932</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>724</v>
@@ -5001,19 +5001,19 @@
         <v>682663</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>673579</v>
+        <v>673732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>687404</v>
+        <v>687497</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9841074445217124</v>
+        <v>0.9841074445217122</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9710130159589996</v>
+        <v>0.9712335209105228</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9909426314399501</v>
+        <v>0.9910762055274512</v>
       </c>
     </row>
     <row r="9">
@@ -5105,19 +5105,19 @@
         <v>5507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2058</v>
+        <v>2182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11169</v>
+        <v>11223</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01091751813911901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004079847606267732</v>
+        <v>0.004326217224249449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02214166392481857</v>
+        <v>0.02224829029371676</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5126,19 +5126,19 @@
         <v>5652</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2149</v>
+        <v>1697</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15404</v>
+        <v>13375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02132301351318774</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008105716991698035</v>
+        <v>0.006402445137042262</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05810751521012791</v>
+        <v>0.05045480716945325</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -5147,19 +5147,19 @@
         <v>11160</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5539</v>
+        <v>5910</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19988</v>
+        <v>21676</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01450199224149272</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007197675007000875</v>
+        <v>0.007679727517491994</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02597465971082588</v>
+        <v>0.02816830807127334</v>
       </c>
     </row>
     <row r="11">
@@ -5176,19 +5176,19 @@
         <v>498937</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>493275</v>
+        <v>493221</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>502386</v>
+        <v>502262</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9890824818608809</v>
+        <v>0.989082481860881</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9778583360751815</v>
+        <v>0.9777517097062833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9959201523937324</v>
+        <v>0.9956737827757505</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>360</v>
@@ -5197,19 +5197,19 @@
         <v>259436</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>249684</v>
+        <v>251713</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>262939</v>
+        <v>263391</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9786769864868123</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9418924847898722</v>
+        <v>0.9495451928305468</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9918942830083021</v>
+        <v>0.9935975548629578</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>849</v>
@@ -5218,19 +5218,19 @@
         <v>758372</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>749544</v>
+        <v>747856</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>763993</v>
+        <v>763622</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9854980077585073</v>
+        <v>0.9854980077585074</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9740253402891742</v>
+        <v>0.9718316919287268</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9928023249929988</v>
+        <v>0.9923202724825085</v>
       </c>
     </row>
     <row r="12">
@@ -5322,19 +5322,19 @@
         <v>10074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4800</v>
+        <v>4954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17430</v>
+        <v>17450</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02084368965135621</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009932118211661163</v>
+        <v>0.01024953987288612</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03606436903330121</v>
+        <v>0.0361040337796513</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -5343,19 +5343,19 @@
         <v>8303</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3536</v>
+        <v>3650</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18133</v>
+        <v>17310</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03087509534151106</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01314835819053516</v>
+        <v>0.01357204152791592</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06742949888714583</v>
+        <v>0.06436919755945682</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -5364,19 +5364,19 @@
         <v>18377</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11206</v>
+        <v>11339</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29482</v>
+        <v>29264</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02442986641672384</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.014897410508828</v>
+        <v>0.01507442035280225</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03919232315175498</v>
+        <v>0.03890328712920212</v>
       </c>
     </row>
     <row r="14">
@@ -5393,19 +5393,19 @@
         <v>473240</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>465884</v>
+        <v>465864</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>478514</v>
+        <v>478360</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9791563103486438</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9639356309666975</v>
+        <v>0.963895966220349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9900678817883388</v>
+        <v>0.989750460127114</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>351</v>
@@ -5414,19 +5414,19 @@
         <v>260617</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>250787</v>
+        <v>251610</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>265384</v>
+        <v>265270</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.969124904658489</v>
+        <v>0.9691249046584891</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9325705011128566</v>
+        <v>0.9356308024405431</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9868516418094648</v>
+        <v>0.9864279584720843</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>789</v>
@@ -5435,19 +5435,19 @@
         <v>733856</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>722751</v>
+        <v>722969</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>741027</v>
+        <v>740894</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9755701335832762</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.960807676848245</v>
+        <v>0.9610967128707978</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9851025894911719</v>
+        <v>0.9849255796471977</v>
       </c>
     </row>
     <row r="15">
@@ -5539,19 +5539,19 @@
         <v>30436</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21405</v>
+        <v>21305</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42082</v>
+        <v>42287</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01838068784450056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01292700451257645</v>
+        <v>0.01286673659893291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02541437535259547</v>
+        <v>0.02553824402119308</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -5560,19 +5560,19 @@
         <v>19375</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12279</v>
+        <v>12021</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32218</v>
+        <v>31825</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02177465791428871</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.013799416677956</v>
+        <v>0.01351014253383497</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03620878507826701</v>
+        <v>0.03576705386687489</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -5581,19 +5581,19 @@
         <v>49810</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37555</v>
+        <v>37044</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66081</v>
+        <v>64587</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0195670034167976</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01475281693365285</v>
+        <v>0.01455194447033042</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.025958721733023</v>
+        <v>0.02537171040692832</v>
       </c>
     </row>
     <row r="17">
@@ -5610,19 +5610,19 @@
         <v>1625408</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1613762</v>
+        <v>1613557</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1634439</v>
+        <v>1634539</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9816193121554995</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9745856246474042</v>
+        <v>0.9744617559788069</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9870729954874236</v>
+        <v>0.9871332634010671</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1165</v>
@@ -5631,19 +5631,19 @@
         <v>870417</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>857574</v>
+        <v>857967</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>877513</v>
+        <v>877771</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9782253420857114</v>
+        <v>0.9782253420857112</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9637912149217328</v>
+        <v>0.9642329461331254</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.986200583322044</v>
+        <v>0.986489857466166</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2700</v>
@@ -5652,19 +5652,19 @@
         <v>2495826</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2479555</v>
+        <v>2481049</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2508081</v>
+        <v>2508592</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9804329965832025</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9740412782669771</v>
+        <v>0.9746282895930719</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9852471830663468</v>
+        <v>0.9854480555296696</v>
       </c>
     </row>
     <row r="18">
